--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreik\IdeaProjects\CasosPrueba2\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\OneDrive\Desktop\AutomatizacionEVA2\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B837836-5407-4B34-A89D-C929EFCD3203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB23DC-761E-4F4C-85C9-C65F64C3B523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{4DC31BE8-C152-4FC9-A9A7-B32F959A6A82}"/>
+    <workbookView xWindow="3500" yWindow="2690" windowWidth="22100" windowHeight="11170" xr2:uid="{4DC31BE8-C152-4FC9-A9A7-B32F959A6A82}"/>
   </bookViews>
   <sheets>
     <sheet name="DataLogin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>User</t>
   </si>
@@ -59,17 +59,41 @@
     <t>jsmith</t>
   </si>
   <si>
-    <t>tuser</t>
-  </si>
-  <si>
     <t>Demo1234</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>800002 Savings</t>
+  </si>
+  <si>
+    <t>800003 Checking</t>
+  </si>
+  <si>
+    <t>Transfer Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -119,9 +150,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,71 +498,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F603FF-02C3-42F4-9792-1969A422C360}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>800002</v>
-      </c>
-      <c r="D2">
-        <v>800003</v>
-      </c>
-      <c r="E2">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>800002</v>
-      </c>
-      <c r="D3">
-        <v>800003</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\OneDrive\Desktop\AutomatizacionEVA2\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB23DC-761E-4F4C-85C9-C65F64C3B523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB9E93-EECC-4FC5-8910-4C0C74B25E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="2690" windowWidth="22100" windowHeight="11170" xr2:uid="{4DC31BE8-C152-4FC9-A9A7-B32F959A6A82}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
@@ -86,13 +86,20 @@
     <t>800003 Checking</t>
   </si>
   <si>
-    <t>Transfer Complete</t>
+    <t>Prueba NO OK</t>
+  </si>
+  <si>
+    <t>Prueba OK</t>
+  </si>
+  <si>
+    <t>successfully transferred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +508,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,9 +572,11 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -588,7 +597,9 @@
       <c r="F4" s="2">
         <v>1000000</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -607,9 +618,11 @@
         <v>100</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
